--- a/What to eat.xlsx
+++ b/What to eat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc20\Desktop\Code\What to eat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc20\Solution-to-the-hardest-problem-in-life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB1318B-E97E-46F2-B34D-ECFA148F0330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB0AEB-D889-4E41-9D5F-014FF62CF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{830D882D-B451-4A09-8B70-967AFFAB8306}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
   <si>
     <t>麥味登</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,18 @@
   </si>
   <si>
     <t>淬鍊廚房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,28 +728,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D5009-DDB1-4005-BBC2-130F677B60FB}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -748,7 +760,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -759,7 +771,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -770,29 +782,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>118</v>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -803,7 +815,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -814,7 +826,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -825,7 +837,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -836,18 +848,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -858,18 +870,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -880,7 +892,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -891,10 +903,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -902,7 +914,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -913,7 +925,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -924,7 +936,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -935,7 +947,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -946,7 +958,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -957,10 +969,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -968,7 +980,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -979,32 +991,32 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24">
-        <v>118</v>
+      <c r="C24" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1012,29 +1024,29 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27">
-        <v>118</v>
+      <c r="C27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
@@ -1045,7 +1057,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
@@ -1056,29 +1068,29 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C31">
-        <v>118</v>
+      <c r="C31" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
@@ -1089,10 +1101,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1100,7 +1112,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>46</v>
@@ -1111,10 +1123,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1122,7 +1134,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -1133,7 +1145,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -1144,7 +1156,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -1155,7 +1167,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
@@ -1166,7 +1178,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>53</v>
@@ -1177,10 +1189,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1188,7 +1200,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -1199,7 +1211,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
         <v>57</v>
@@ -1210,10 +1222,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1221,7 +1233,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
         <v>62</v>
@@ -1232,7 +1244,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
         <v>62</v>
@@ -1243,7 +1255,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -1259,24 +1271,24 @@
       <c r="B49" t="s">
         <v>62</v>
       </c>
-      <c r="C49">
-        <v>118</v>
+      <c r="C49" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
         <v>66</v>
@@ -1287,7 +1299,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
         <v>66</v>
@@ -1298,18 +1310,18 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53">
-        <v>118</v>
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
         <v>70</v>
@@ -1320,18 +1332,18 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
         <v>70</v>
       </c>
-      <c r="C55" t="s">
-        <v>6</v>
+      <c r="C55">
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
         <v>70</v>
@@ -1342,10 +1354,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1353,7 +1365,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
         <v>71</v>
@@ -1364,10 +1376,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1375,34 +1387,45 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
         <v>74</v>
       </c>
-      <c r="C60">
-        <v>118</v>
+      <c r="C60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>
       </c>
-      <c r="C61" t="s">
-        <v>6</v>
+      <c r="C61">
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
         <v>74</v>
       </c>
       <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
         <v>6</v>
       </c>
     </row>

--- a/What to eat.xlsx
+++ b/What to eat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc20\Solution-to-the-hardest-problem-in-life\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc20\Desktop\Code\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB0AEB-D889-4E41-9D5F-014FF62CF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E01C3C-996C-4454-AE7E-A3537960CD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{830D882D-B451-4A09-8B70-967AFFAB8306}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{830D882D-B451-4A09-8B70-967AFFAB8306}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
   <si>
     <t>麥味登</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>口山虫尤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鐵板燒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,15 +351,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Location</t>
+    <t>嗤尤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推豆花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老闆人超可愛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>池上木片便當</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便當</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好吃便當</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>義麵屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>適合家聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pizza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼谷燒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里媽媽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬來西亞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>池先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台大牛莊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好吃麵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呈信鵝肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新丼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾經吃起司吃到拉肚子，除此之外還不錯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pasta 2 go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限外帶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻咖哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建議訂位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無名咖哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旭倉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免費加醬加飯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需先訂位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59麵館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好吃但有點乾，所以他開了59飲料店，學生證折5塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李記水餃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28麵堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm pasta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梧貳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐姆蛋包飯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,372 +860,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D5009-DDB1-4005-BBC2-130F677B60FB}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32">
-        <v>118</v>
+      <c r="C32" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1101,10 +1257,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1112,10 +1268,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1123,10 +1279,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1134,10 +1290,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1145,10 +1301,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1156,10 +1312,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1167,10 +1323,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1178,10 +1334,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1189,10 +1345,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1200,10 +1356,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1211,10 +1367,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1222,10 +1378,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1233,10 +1389,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1244,10 +1400,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1255,181 +1411,397 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
         <v>70</v>
       </c>
-      <c r="C54">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
         <v>70</v>
       </c>
-      <c r="C55">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
         <v>70</v>
       </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" t="s">
         <v>69</v>
       </c>
-      <c r="B57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D81">
+    <sortCondition ref="C1:C81"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
